--- a/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO - ATUALIZADO.xlsx
@@ -2303,6 +2303,72 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2312,98 +2378,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2423,15 +2489,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2441,53 +2498,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2508,25 +2526,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2696,7 +2696,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2719,14 +2719,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2769,7 +2769,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2792,14 +2792,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3129,10 +3129,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="197"/>
+      <c r="D2" s="125"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
@@ -3234,79 +3234,71 @@
     <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="128"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="131"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="128"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3317,6 +3309,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3374,17 +3374,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
@@ -3393,132 +3393,132 @@
       <c r="C7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="109" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="109" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="109" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="109" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="109" t="s">
         <v>128</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="109" t="s">
         <v>151</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="109" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="109" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="109" t="s">
         <v>129</v>
       </c>
       <c r="C16" s="52"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" thickBot="1">
       <c r="B17" s="5"/>
@@ -3532,17 +3532,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="47" t="s">
@@ -3554,16 +3554,16 @@
       <c r="D19" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="153" t="s">
+      <c r="E19" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="155"/>
-      <c r="G19" s="153" t="s">
+      <c r="F19" s="157"/>
+      <c r="G19" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="157"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
@@ -3573,14 +3573,14 @@
       <c r="D20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="151" t="s">
+      <c r="E20" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="152"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="2"/>
@@ -3594,11 +3594,11 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="46" t="s">
@@ -3637,17 +3637,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="51" t="s">
@@ -3659,57 +3659,59 @@
       <c r="D28" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="150" t="s">
+      <c r="E28" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150" t="s">
+      <c r="F28" s="152"/>
+      <c r="G28" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3724,13 +3726,11 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D16:J16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3817,39 +3817,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="173" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="175"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -4639,12 +4639,12 @@
         <v>2</v>
       </c>
       <c r="M15" s="97"/>
-      <c r="N15" s="176" t="s">
+      <c r="N15" s="167" t="s">
         <v>173</v>
       </c>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163" t="s">
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170" t="s">
         <v>113</v>
       </c>
       <c r="R15" s="63" t="s">
@@ -4653,28 +4653,28 @@
       <c r="S15" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="T15" s="179" t="s">
+      <c r="T15" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="U15" s="179" t="s">
+      <c r="U15" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="V15" s="160"/>
-      <c r="W15" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="X15" s="182" t="s">
+      <c r="V15" s="182"/>
+      <c r="W15" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="166">
+      <c r="Y15" s="185">
         <v>12</v>
       </c>
-      <c r="Z15" s="166">
+      <c r="Z15" s="185">
         <v>2</v>
       </c>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="157"/>
-      <c r="AC15" s="157"/>
+      <c r="AA15" s="179"/>
+      <c r="AB15" s="179"/>
+      <c r="AC15" s="179"/>
     </row>
     <row r="16" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B16" s="60" t="s">
@@ -4711,26 +4711,26 @@
       <c r="M16" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="177"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="171"/>
       <c r="R16" s="63" t="s">
         <v>202</v>
       </c>
       <c r="S16" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="T16" s="180"/>
-      <c r="U16" s="180"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="167"/>
-      <c r="Z16" s="167"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="180"/>
+      <c r="AB16" s="180"/>
+      <c r="AC16" s="180"/>
     </row>
     <row r="17" spans="2:29" s="3" customFormat="1">
       <c r="B17" s="60" t="s">
@@ -4767,26 +4767,26 @@
       <c r="M17" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="N17" s="178"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
       <c r="R17" s="63" t="s">
         <v>202</v>
       </c>
       <c r="S17" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="T17" s="181"/>
-      <c r="U17" s="181"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="184"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="159"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="184"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="181"/>
+      <c r="AB17" s="181"/>
+      <c r="AC17" s="181"/>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="83"/>
@@ -6614,6 +6614,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="Y15:Y17"/>
+    <mergeCell ref="Z15:Z17"/>
+    <mergeCell ref="AA15:AA17"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -6625,12 +6631,6 @@
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="O15:O17"/>
     <mergeCell ref="U15:U17"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="Y15:Y17"/>
-    <mergeCell ref="Z15:Z17"/>
-    <mergeCell ref="AA15:AA17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6643,9 +6643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6716,39 +6714,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="173" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="175"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -6867,40 +6865,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="185" t="s">
+      <c r="N4" s="191" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="188" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="188" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="192" t="s">
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="194" t="s">
+        <v>202</v>
+      </c>
+      <c r="S4" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="T4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="192" t="s">
+      <c r="U4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="194" t="s">
+      <c r="V4" s="189"/>
+      <c r="W4" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="194">
+      <c r="Y4" s="190">
         <v>2</v>
       </c>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
-      <c r="AC4" s="191"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -6934,36 +6932,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="189" t="s">
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="192"/>
+      <c r="Q5" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="T5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="192" t="s">
+      <c r="U5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="194" t="s">
+      <c r="V5" s="189"/>
+      <c r="W5" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="Y5" s="194"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="191"/>
-      <c r="AB5" s="191"/>
-      <c r="AC5" s="191"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -6997,36 +6995,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="189" t="s">
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="192" t="s">
+      <c r="S6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="192" t="s">
+      <c r="T6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="192" t="s">
+      <c r="U6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="194" t="s">
+      <c r="V6" s="189"/>
+      <c r="W6" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -7061,36 +7059,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="189" t="s">
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="192" t="s">
+      <c r="S7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="192" t="s">
+      <c r="T7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="192" t="s">
+      <c r="U7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="194" t="s">
+      <c r="V7" s="189"/>
+      <c r="W7" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="194"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -7125,36 +7123,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="189" t="s">
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="192" t="s">
+      <c r="S8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="192" t="s">
+      <c r="T8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="192" t="s">
+      <c r="U8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="194" t="s">
+      <c r="V8" s="189"/>
+      <c r="W8" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="194"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
+      <c r="Y8" s="190"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -7189,36 +7187,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="189" t="s">
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="192" t="s">
+      <c r="S9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="192" t="s">
+      <c r="T9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="192" t="s">
+      <c r="U9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="194" t="s">
+      <c r="V9" s="189"/>
+      <c r="W9" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -7251,36 +7249,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="189" t="s">
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="192" t="s">
+      <c r="S10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="192" t="s">
+      <c r="T10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="192" t="s">
+      <c r="U10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="194" t="s">
+      <c r="V10" s="189"/>
+      <c r="W10" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="190" t="s">
         <v>117</v>
       </c>
-      <c r="Y10" s="194"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -7315,36 +7313,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="189" t="s">
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="192" t="s">
+      <c r="S11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="192" t="s">
+      <c r="T11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="192" t="s">
+      <c r="U11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="194" t="s">
+      <c r="V11" s="189"/>
+      <c r="W11" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="188"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1" ht="15" customHeight="1">
@@ -7377,36 +7375,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="190" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="190" t="s">
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="196" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="192" t="s">
+      <c r="S12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="192" t="s">
+      <c r="T12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="192" t="s">
+      <c r="U12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192" t="s">
+      <c r="V12" s="189"/>
+      <c r="W12" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="194" t="s">
+      <c r="X12" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y12" s="194"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1" ht="24" customHeight="1">
@@ -7679,13 +7677,13 @@
       </c>
       <c r="O18" s="120"/>
       <c r="P18" s="120"/>
-      <c r="Q18" s="196" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18" s="196" t="s">
-        <v>202</v>
-      </c>
-      <c r="S18" s="196" t="s">
+      <c r="Q18" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="S18" s="124" t="s">
         <v>202</v>
       </c>
       <c r="T18" s="68" t="s">
@@ -7727,13 +7725,13 @@
       </c>
       <c r="O19" s="120"/>
       <c r="P19" s="120"/>
-      <c r="Q19" s="196" t="s">
-        <v>113</v>
-      </c>
-      <c r="R19" s="196" t="s">
-        <v>202</v>
-      </c>
-      <c r="S19" s="196" t="s">
+      <c r="Q19" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="R19" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="S19" s="124" t="s">
         <v>202</v>
       </c>
       <c r="T19" s="68" t="s">
@@ -7790,7 +7788,7 @@
       <c r="W20" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="X20" s="195" t="s">
+      <c r="X20" s="123" t="s">
         <v>116</v>
       </c>
       <c r="Y20" s="89">
@@ -7838,7 +7836,7 @@
       <c r="W21" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="X21" s="195" t="s">
+      <c r="X21" s="123" t="s">
         <v>118</v>
       </c>
       <c r="Y21" s="89">
@@ -7851,14 +7849,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC4:AC12"/>
-    <mergeCell ref="T4:T12"/>
-    <mergeCell ref="V4:V12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="X4:X12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="U4:U12"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -7870,6 +7860,14 @@
     <mergeCell ref="AA4:AA12"/>
     <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="S4:S12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="T4:T12"/>
+    <mergeCell ref="V4:V12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="U4:U12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7932,39 +7930,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="173" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="175"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -8083,40 +8081,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="185" t="s">
+      <c r="N4" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="192" t="s">
+      <c r="O4" s="191"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="S4" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="T4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="192" t="s">
+      <c r="U4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="192" t="s">
+      <c r="V4" s="189"/>
+      <c r="W4" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="193">
+      <c r="Y4" s="197">
         <v>2</v>
       </c>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
-      <c r="AC4" s="191"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -8150,36 +8148,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="192" t="s">
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="T5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="192" t="s">
+      <c r="U5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="192" t="s">
+      <c r="V5" s="189"/>
+      <c r="W5" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="191"/>
-      <c r="AB5" s="191"/>
-      <c r="AC5" s="191"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -8213,36 +8211,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="192" t="s">
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="192" t="s">
+      <c r="S6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="192" t="s">
+      <c r="T6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="192" t="s">
+      <c r="U6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="192" t="s">
+      <c r="V6" s="189"/>
+      <c r="W6" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -8277,36 +8275,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="192" t="s">
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="192" t="s">
+      <c r="S7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="192" t="s">
+      <c r="T7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="192" t="s">
+      <c r="U7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="192" t="s">
+      <c r="V7" s="189"/>
+      <c r="W7" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -8341,36 +8339,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="192" t="s">
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="192" t="s">
+      <c r="S8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="192" t="s">
+      <c r="T8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="192" t="s">
+      <c r="U8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="192" t="s">
+      <c r="V8" s="189"/>
+      <c r="W8" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -8405,36 +8403,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="192" t="s">
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="192" t="s">
+      <c r="S9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="192" t="s">
+      <c r="T9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="192" t="s">
+      <c r="U9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="192" t="s">
+      <c r="V9" s="189"/>
+      <c r="W9" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -8467,36 +8465,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="192" t="s">
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="192" t="s">
+      <c r="S10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="192" t="s">
+      <c r="T10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="192" t="s">
+      <c r="U10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="192" t="s">
+      <c r="V10" s="189"/>
+      <c r="W10" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="189" t="s">
         <v>117</v>
       </c>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -8531,36 +8529,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="192" t="s">
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="188"/>
+      <c r="Q11" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="192" t="s">
+      <c r="S11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="192" t="s">
+      <c r="T11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="192" t="s">
+      <c r="U11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="192" t="s">
+      <c r="V11" s="189"/>
+      <c r="W11" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="188"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1">
@@ -8593,36 +8591,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="192" t="s">
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="192" t="s">
+      <c r="S12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="192" t="s">
+      <c r="T12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="192" t="s">
+      <c r="U12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192" t="s">
+      <c r="V12" s="189"/>
+      <c r="W12" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="192" t="s">
+      <c r="X12" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33">
@@ -9003,15 +9001,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="AC4:AC12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="X4:X12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -9022,6 +9011,15 @@
     <mergeCell ref="R4:R12"/>
     <mergeCell ref="T4:T12"/>
     <mergeCell ref="V4:V12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -9085,39 +9083,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="173" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="175"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -9236,40 +9234,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="185" t="s">
+      <c r="N4" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="192" t="s">
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="S4" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="T4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="192" t="s">
+      <c r="U4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="192" t="s">
+      <c r="V4" s="189"/>
+      <c r="W4" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="193">
+      <c r="Y4" s="197">
         <v>2</v>
       </c>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
-      <c r="AC4" s="191"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -9303,36 +9301,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="192" t="s">
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="192"/>
+      <c r="Q5" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="T5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="192" t="s">
+      <c r="U5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="192" t="s">
+      <c r="V5" s="189"/>
+      <c r="W5" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="191"/>
-      <c r="AB5" s="191"/>
-      <c r="AC5" s="191"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -9366,36 +9364,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="192" t="s">
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="192" t="s">
+      <c r="S6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="192" t="s">
+      <c r="T6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="192" t="s">
+      <c r="U6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="192" t="s">
+      <c r="V6" s="189"/>
+      <c r="W6" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -9430,36 +9428,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="192" t="s">
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="192" t="s">
+      <c r="S7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="192" t="s">
+      <c r="T7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="192" t="s">
+      <c r="U7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="192" t="s">
+      <c r="V7" s="189"/>
+      <c r="W7" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -9494,36 +9492,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="192" t="s">
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="192" t="s">
+      <c r="S8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="192" t="s">
+      <c r="T8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="192" t="s">
+      <c r="U8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="192" t="s">
+      <c r="V8" s="189"/>
+      <c r="W8" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -9558,36 +9556,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="192" t="s">
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="192" t="s">
+      <c r="S9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="192" t="s">
+      <c r="T9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="192" t="s">
+      <c r="U9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="192" t="s">
+      <c r="V9" s="189"/>
+      <c r="W9" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -9620,36 +9618,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="192" t="s">
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="192" t="s">
+      <c r="S10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="192" t="s">
+      <c r="T10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="192" t="s">
+      <c r="U10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="192" t="s">
+      <c r="V10" s="189"/>
+      <c r="W10" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="189" t="s">
         <v>117</v>
       </c>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -9684,36 +9682,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="192" t="s">
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="192" t="s">
+      <c r="S11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="192" t="s">
+      <c r="T11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="192" t="s">
+      <c r="U11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="192" t="s">
+      <c r="V11" s="189"/>
+      <c r="W11" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="188"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1">
@@ -9746,36 +9744,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="192" t="s">
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="192" t="s">
+      <c r="S12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="192" t="s">
+      <c r="T12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="192" t="s">
+      <c r="U12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192" t="s">
+      <c r="V12" s="189"/>
+      <c r="W12" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="192" t="s">
+      <c r="X12" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1">
@@ -10224,13 +10222,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC4:AC12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="X4:X12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -10243,6 +10234,13 @@
     <mergeCell ref="V4:V12"/>
     <mergeCell ref="S4:S12"/>
     <mergeCell ref="U4:U12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -10510,16 +10508,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -10568,39 +10565,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10615,10 +10598,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>